--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.011420-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Barry.Spring.011420-2.xlsx_with_dialog_acts.xlsx
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2109,12 +2109,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2453,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3079,12 +3079,12 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4171,12 +4171,12 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4841,12 +4841,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4883,12 +4883,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4925,12 +4925,12 @@
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5219,12 +5219,12 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5303,12 +5303,12 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5513,12 +5513,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5681,12 +5681,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6773,12 +6773,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6857,12 +6857,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7243,12 +7243,12 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7285,12 +7285,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7499,12 +7499,12 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7541,12 +7541,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7713,12 +7713,12 @@
       <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8137,12 +8137,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8179,12 +8179,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8725,12 +8725,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
